--- a/4_outputs/figures/Percentage of men and women as a share of the total workforce in specific industrial activities (Mexico, 2019 4Q).xlsx
+++ b/4_outputs/figures/Percentage of men and women as a share of the total workforce in specific industrial activities (Mexico, 2019 4Q).xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter2-PhDthesis\4_outputs\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B104F5C5-FF5B-4A03-826C-00C385A17244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5400E67-3E7E-483C-9649-49C67B4581F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2A2F94D9-B3D4-46BB-87BF-93CCB791BD63}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2A2F94D9-B3D4-46BB-87BF-93CCB791BD63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$5:$E$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>Total</t>
   </si>
@@ -281,9 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,6 +295,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,7 +1081,861 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Men</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$B$6:$C$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Textile products, except clothing</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Clothing</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Food industry</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Computers and other electronic componen</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Electric appliances and accessories</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Paper industry</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Plastic and rubber industry</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Textile Inputs</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Autoparts and transportation equipment</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Leather goods manufacturing</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Chemical industry</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Printing and related industries</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unspecified manufacturing activities</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Beverage and tobacco industry</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Machinery and equipment manufacturing</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Wood industry</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Petroleum and coal products</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Non-metallic mineral products</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Furniture, mattresses, and blinds</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Basic metal industries</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Metal products manufacturing</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Electricity, gas and water supply</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Mining</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Construction</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Manufacturing</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$6:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>24.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86.91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86.49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1E7-488D-91CD-3944D276BE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Women</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF99FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1832912520915874E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F1E7-488D-91CD-3944D276BE12}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$B$6:$C$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Textile products, except clothing</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Clothing</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Food industry</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Computers and other electronic componen</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Electric appliances and accessories</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Paper industry</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Plastic and rubber industry</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Textile Inputs</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Autoparts and transportation equipment</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Leather goods manufacturing</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Chemical industry</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Printing and related industries</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unspecified manufacturing activities</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Beverage and tobacco industry</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Machinery and equipment manufacturing</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Wood industry</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Petroleum and coal products</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Non-metallic mineral products</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Furniture, mattresses, and blinds</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Basic metal industries</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Metal products manufacturing</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Electricity, gas and water supply</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Mining</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Construction</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Manufacturing</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>.</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$6:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>75.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1E7-488D-91CD-3944D276BE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="722092736"/>
+        <c:axId val="722099576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="722092736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722099576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="722099576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722092736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1622,6 +2480,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1643,6 +3006,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70FB538-D064-A320-C826-7FDB9DB3EB40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146049</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D74F6AC-1DBD-BF8C-C9B8-6148E73412AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,30 +3748,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF2E59B-0F91-442B-9967-217C072F3FE3}">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="B1:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.08984375" customWidth="1"/>
     <col min="3" max="3" width="87.26953125" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="6"/>
+    <col min="4" max="5" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
@@ -2390,10 +3794,10 @@
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>86.49</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>13.51</v>
       </c>
     </row>
@@ -2404,264 +3808,264 @@
       <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>81.19</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>18.809999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>74.739999999999995</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>25.26</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>82.07</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>17.93</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>79.400000000000006</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>20.6</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>87.45</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>12.55</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>62.67</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>37.33</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>80.680000000000007</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>19.32</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>67.36</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>32.64</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>61.33</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>38.67</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>59.43</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>40.57</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>24.37</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>75.63</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>78.459999999999994</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>21.54</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>66.239999999999995</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>33.76</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>55.91</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>44.09</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>66.819999999999993</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>33.18</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>84.22</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>15.78</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>62.64</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>37.36</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>86.91</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>13.09</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="5"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>89.21</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="5"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>33.200000000000003</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>66.8</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="5"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>63.39</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>36.61</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="5"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>55.13</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>44.87</v>
       </c>
     </row>
@@ -2672,10 +4076,10 @@
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>96.36</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>3.64</v>
       </c>
     </row>
@@ -2686,4 +4090,363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB7E81D-A5B8-4657-9A56-15388BC8A8BF}">
+  <dimension ref="B1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="64.08984375" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6">
+        <v>24.37</v>
+      </c>
+      <c r="E6" s="6">
+        <v>75.63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E7" s="6">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>55.13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>44.87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="10"/>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6">
+        <v>55.91</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44.09</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="10"/>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6">
+        <v>59.43</v>
+      </c>
+      <c r="E10" s="6">
+        <v>40.57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>61.33</v>
+      </c>
+      <c r="E11" s="6">
+        <v>38.67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="10"/>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6">
+        <v>62.64</v>
+      </c>
+      <c r="E12" s="6">
+        <v>37.36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="10"/>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>62.67</v>
+      </c>
+      <c r="E13" s="6">
+        <v>37.33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6">
+        <v>63.39</v>
+      </c>
+      <c r="E14" s="6">
+        <v>36.61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="10"/>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="6">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="E15" s="6">
+        <v>33.76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6">
+        <v>66.819999999999993</v>
+      </c>
+      <c r="E16" s="6">
+        <v>33.18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="10"/>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6">
+        <v>67.36</v>
+      </c>
+      <c r="E17" s="6">
+        <v>32.64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="10"/>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="E18" s="6">
+        <v>25.26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="10"/>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6">
+        <v>78.459999999999994</v>
+      </c>
+      <c r="E19" s="6">
+        <v>21.54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="10"/>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E20" s="6">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="10"/>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="E21" s="6">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="10"/>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="6">
+        <v>82.07</v>
+      </c>
+      <c r="E22" s="6">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="10"/>
+      <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6">
+        <v>84.22</v>
+      </c>
+      <c r="E23" s="6">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="10"/>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6">
+        <v>86.91</v>
+      </c>
+      <c r="E24" s="6">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="10"/>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6">
+        <v>87.45</v>
+      </c>
+      <c r="E25" s="6">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="10"/>
+      <c r="C26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="6">
+        <v>89.21</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="6">
+        <v>81.19</v>
+      </c>
+      <c r="E27" s="6">
+        <v>18.809999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6">
+        <v>86.49</v>
+      </c>
+      <c r="E28" s="6">
+        <v>13.51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="6">
+        <v>96.36</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/4_outputs/figures/Percentage of men and women as a share of the total workforce in specific industrial activities (Mexico, 2019 4Q).xlsx
+++ b/4_outputs/figures/Percentage of men and women as a share of the total workforce in specific industrial activities (Mexico, 2019 4Q).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter2-PhDthesis\4_outputs\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5400E67-3E7E-483C-9649-49C67B4581F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B610F1-02F9-445E-9C09-6F9BBFAB5130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2A2F94D9-B3D4-46BB-87BF-93CCB791BD63}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2A2F94D9-B3D4-46BB-87BF-93CCB791BD63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1119,7 +1119,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1130,9 +1131,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1404,35 +1403,6 @@
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1448,9 +1418,7 @@
               </c:extLst>
             </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -4097,7 +4065,7 @@
   <dimension ref="B1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
